--- a/Middle_Assignment/Assignment5/Le Thi Hoa_TestCase_5.xlsx
+++ b/Middle_Assignment/Assignment5/Le Thi Hoa_TestCase_5.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Common Checklist</t>
   </si>
@@ -174,17 +174,7 @@
     <t>1.Function</t>
   </si>
   <si>
-    <t>Check status of  Delete button in top page</t>
-  </si>
-  <si>
-    <t>1. Click a address of list address
-2. Observe Delete icon</t>
-  </si>
-  <si>
-    <t>Delete icon enable</t>
-  </si>
-  <si>
-    <t>Check a confirmation pop-up when user click on Delete icon</t>
+    <t>Verify popup content</t>
   </si>
   <si>
     <t>1. Select a address of list address
@@ -197,7 +187,19 @@
 - Button: Cancel and Delete</t>
   </si>
   <si>
-    <t>Check system when user delete default address</t>
+    <t>Delete address successfully when address is not default address.</t>
+  </si>
+  <si>
+    <t>1. Select a address of list address 
+2. Click on Delete icon
+3. Click Delete button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1 Delete successful and close the add new address screen 
+3.2 Back to Address list screen</t>
+  </si>
+  <si>
+    <t>Delete address unsuccessfully when address is default address.</t>
   </si>
   <si>
     <t>1. Select the default address of list address
@@ -205,33 +207,36 @@
 3. Click on Delete button</t>
   </si>
   <si>
-    <t>Delete fail and show error message: "You cannot delete your default address" show in the screen</t>
-  </si>
-  <si>
-    <t>Check address is successfully deleted when user click on DELETE button of confirmation pop-up</t>
+    <t>3.1 Delete fail and show error message: "You cannot delete your default address" show in the screen
+3.2 Back to Address list screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete address successfully if default address is changed to non-default </t>
+  </si>
+  <si>
+    <t>1. Select the default address of list address.
+2. Change default of this address to non-default
+3. Click on Delete icon
+4. Click on Delete button of popup</t>
+  </si>
+  <si>
+    <t>3.1 Delete successful and close the delete address screen 
+3.2 Back to Address list screen</t>
+  </si>
+  <si>
+    <t>Can not delete address by click on Cancel button</t>
   </si>
   <si>
     <t>1. Select a address of list address 
 2. Click on Delete icon
-3. Click Delete button</t>
-  </si>
-  <si>
-    <t>Delete successfull and show error message will be displayed:
-"You deleted your address" show in the screen</t>
-  </si>
-  <si>
-    <t>Check address is not deleted when click on CANCEL button in the confirmation pop-up</t>
-  </si>
-  <si>
-    <t>1. Select a address of list address 
-2. Click on Delete icon
-3. Click Cancell button</t>
-  </si>
-  <si>
-    <t>Delete fail and back to Address list screen</t>
-  </si>
-  <si>
-    <t>Check when click "x" button of confirmation pop-up</t>
+3. Click Cancel button</t>
+  </si>
+  <si>
+    <t>3.1 Delete fail and close the delete address screen 
+3.2 Back to Address book screen</t>
+  </si>
+  <si>
+    <t>Can not delete address by click on x icon</t>
   </si>
   <si>
     <t>1. Select a address of list address 
@@ -239,7 +244,11 @@
 3. Click x button</t>
   </si>
   <si>
-    <t>Verify delete unsuccessfully if user press the esc key</t>
+    <t>3. Delete fail and close the delete address screen 
+3.2 Back to Address book screen</t>
+  </si>
+  <si>
+    <t>Can not delete address by press on keyboard</t>
   </si>
   <si>
     <t>1. Select a address of list address 
@@ -247,17 +256,8 @@
 2. Press the esc key</t>
   </si>
   <si>
-    <t xml:space="preserve">Delete address sucessfully if default address is changed to non-default </t>
-  </si>
-  <si>
-    <t>1. Select the default address of list address.
-2. Change default of this address to non-default
-3. Click on Delete icon
-4. Click on Delete button</t>
-  </si>
-  <si>
-    <t>Delete successful and show error message will be displayed:
-"You deleted your address" show in the screen</t>
+    <t>3. Delete fail and close the delete  address screen 
+3.2 Back to Address book screen</t>
   </si>
 </sst>
 </file>
@@ -265,11 +265,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="39">
@@ -333,10 +333,88 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -347,11 +425,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,82 +471,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF7EA1D0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -450,22 +492,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7EA1D0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,54 +528,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF800000"/>
       <name val="Arial"/>
@@ -584,73 +584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,8 +608,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFF7A884"/>
       </patternFill>
     </fill>
     <fill>
@@ -674,43 +692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,7 +704,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,13 +728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,7 +746,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,25 +782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,12 +796,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFBFBFBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
-        <bgColor rgb="FFF7A884"/>
       </patternFill>
     </fill>
   </fills>
@@ -823,15 +823,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -843,6 +834,69 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,21 +931,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -902,49 +941,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -952,176 +952,176 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="31" fillId="32" borderId="4">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="31" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="11" borderId="0"/>
+    <xf numFmtId="176" fontId="29" fillId="27" borderId="8"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="31" fillId="30" borderId="4"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="2" borderId="0">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="37" fillId="42" borderId="10">
+    <xf numFmtId="176" fontId="37" fillId="43" borderId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="43" borderId="10">
+    <xf numFmtId="176" fontId="14" fillId="24" borderId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1231,38 +1231,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1332,8 +1320,8 @@
     <cellStyle name="40% - Accent6" xfId="57" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="58" builtinId="52"/>
     <cellStyle name="background 2" xfId="59"/>
-    <cellStyle name="Normal 2 2" xfId="60"/>
-    <cellStyle name="Header" xfId="61"/>
+    <cellStyle name="Header" xfId="60"/>
+    <cellStyle name="Normal 2 2" xfId="61"/>
     <cellStyle name="Hyperlink 2" xfId="62"/>
     <cellStyle name="Hyperlink 3" xfId="63"/>
     <cellStyle name="Normal 2 3" xfId="64"/>
@@ -1683,14 +1671,14 @@
   <sheetPr/>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15238095238095" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="13.5714285714286" style="9" customWidth="1"/>
-    <col min="2" max="2" width="47.7142857142857" style="10" customWidth="1"/>
+    <col min="2" max="2" width="47.1428571428571" style="10" customWidth="1"/>
     <col min="3" max="3" width="24.4285714285714" style="10" customWidth="1"/>
     <col min="4" max="4" width="32.4285714285714" style="10" customWidth="1"/>
     <col min="5" max="5" width="4.85714285714286" style="10" customWidth="1"/>
@@ -1976,7 +1964,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
     </row>
-    <row r="20" s="7" customFormat="1" ht="38.25" outlineLevel="1" spans="1:9">
+    <row r="20" s="7" customFormat="1" ht="76.5" outlineLevel="1" spans="1:9">
       <c r="A20" s="34">
         <f ca="1">IF(OFFSET(A20,-1,0)="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1)</f>
         <v>1</v>
@@ -1990,303 +1978,290 @@
       <c r="D20" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-    </row>
-    <row r="21" s="8" customFormat="1" ht="76.5" outlineLevel="1" spans="1:9">
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:9">
       <c r="A21" s="34">
         <f ca="1">IF(OFFSET(A21,-1,0)="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1)</f>
         <v>2</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="49"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:9">
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+    </row>
+    <row r="22" s="8" customFormat="1" ht="60" outlineLevel="1" spans="1:9">
       <c r="A22" s="34">
         <f ca="1">IF(OFFSET(A22,-1,0)="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1)</f>
         <v>3</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="60" outlineLevel="1" spans="1:9">
+      <c r="E22" s="40"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="45"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="89.25" outlineLevel="1" spans="1:9">
       <c r="A23" s="34">
         <f ca="1">IF(OFFSET(A23,-1,0)="",OFFSET(A23,-2,0)+1,OFFSET(A23,-1,0)+1)</f>
         <v>4</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:9">
       <c r="A24" s="34">
         <f ca="1">IF(OFFSET(A24,-1,0)="",OFFSET(A24,-2,0)+1,OFFSET(A24,-1,0)+1)</f>
         <v>5</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:9">
       <c r="A25" s="34">
         <f ca="1">IF(OFFSET(A25,-1,0)="",OFFSET(A25,-2,0)+1,OFFSET(A25,-1,0)+1)</f>
         <v>6</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
+      <c r="D25" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:9">
-      <c r="A26" s="34"/>
-      <c r="B26" s="36" t="s">
-        <v>43</v>
+      <c r="A26" s="34">
+        <v>7</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="76.5" spans="1:9">
-      <c r="A27" s="34">
-        <f ca="1">IF(OFFSET(A27,-1,0)="",OFFSET(A27,-2,0)+1,OFFSET(A27,-1,0)+1)</f>
-        <v>7</v>
-      </c>
-      <c r="B27" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="D26" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:9">
+      <c r="A27" s="34"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:9">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
+      <c r="A28" s="41"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:9">
-      <c r="A29" s="45"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:9">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:9">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:9">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:9">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:9">
-      <c r="A34" s="45"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:9">
-      <c r="A35" s="45"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:9">
-      <c r="A36" s="45"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
+      <c r="A36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:9">
-      <c r="A37" s="45"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
+      <c r="A37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:9">
-      <c r="A38" s="45"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:9">
-      <c r="A39" s="45"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
+      <c r="A39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:9">
-      <c r="A40" s="45"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
+      <c r="A40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:8">
-      <c r="A41" s="45"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
+      <c r="A41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:2">
-      <c r="A42" s="45"/>
-      <c r="B42" s="48"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="44"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:2">
-      <c r="B43" s="48"/>
+      <c r="B43" s="44"/>
     </row>
     <row r="44" s="1" customFormat="1"/>
     <row r="45" s="1" customFormat="1"/>

--- a/Middle_Assignment/Assignment5/Le Thi Hoa_TestCase_5.xlsx
+++ b/Middle_Assignment/Assignment5/Le Thi Hoa_TestCase_5.xlsx
@@ -107,7 +107,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Delete New Address function</t>
+    <t>Delete Address function</t>
   </si>
   <si>
     <t xml:space="preserve">Pre-condition </t>
@@ -195,8 +195,8 @@
 3. Click Delete button</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.1 Delete successful and close the add new address screen 
-3.2 Back to Address list screen</t>
+    <t xml:space="preserve"> 3.1 Delete successful and close the delete address screen 
+3.2 Back to Address list screen and deleted address is not displayed on Address book</t>
   </si>
   <si>
     <t>Delete address unsuccessfully when address is default address.</t>
@@ -221,7 +221,7 @@
   </si>
   <si>
     <t>3.1 Delete successful and close the delete address screen 
-3.2 Back to Address list screen</t>
+3.2 Back to Address list screen and deleted address is not displayed on Address book</t>
   </si>
   <si>
     <t>Can not delete address by click on Cancel button</t>
@@ -265,11 +265,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
     <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="39">
@@ -322,15 +322,41 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11.25"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -341,41 +367,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,9 +390,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -410,13 +406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -440,11 +429,31 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF7EA1D0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -456,6 +465,19 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -463,17 +485,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -483,48 +513,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF7EA1D0"/>
-      <name val="Calibri"/>
+      <sz val="16"/>
+      <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -584,19 +584,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFF7A884"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,188 +788,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
-        <bgColor rgb="FFF7A884"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFF7A884"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -823,6 +823,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -838,6 +849,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -849,15 +875,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,6 +904,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -901,225 +933,193 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="24" borderId="4">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="41" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="41" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="42" borderId="4"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="36" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="31" borderId="8">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="176" fontId="29" fillId="27" borderId="8"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="0">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="37" fillId="43" borderId="9">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="37" fillId="43" borderId="7">
+    <xf numFmtId="178" fontId="13" fillId="26" borderId="9">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="24" borderId="7">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1320,8 +1320,8 @@
     <cellStyle name="40% - Accent6" xfId="57" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="58" builtinId="52"/>
     <cellStyle name="background 2" xfId="59"/>
-    <cellStyle name="Header" xfId="60"/>
-    <cellStyle name="Normal 2 2" xfId="61"/>
+    <cellStyle name="Normal 2 2" xfId="60"/>
+    <cellStyle name="Header" xfId="61"/>
     <cellStyle name="Hyperlink 2" xfId="62"/>
     <cellStyle name="Hyperlink 3" xfId="63"/>
     <cellStyle name="Normal 2 3" xfId="64"/>
@@ -1671,8 +1671,8 @@
   <sheetPr/>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15238095238095" defaultRowHeight="12.75"/>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="20" s="7" customFormat="1" ht="76.5" outlineLevel="1" spans="1:9">
       <c r="A20" s="34">
-        <f ca="1">IF(OFFSET(A20,-1,0)="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1)</f>
+        <f ca="1" t="shared" ref="A20:A25" si="0">IF(OFFSET(A20,-1,0)="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1)</f>
         <v>1</v>
       </c>
       <c r="B20" s="35" t="s">
@@ -1984,9 +1984,9 @@
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:9">
+    <row r="21" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:9">
       <c r="A21" s="34">
-        <f ca="1">IF(OFFSET(A21,-1,0)="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1)</f>
+        <f ca="1" t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B21" s="37" t="s">
@@ -2004,9 +2004,9 @@
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
     </row>
-    <row r="22" s="8" customFormat="1" ht="60" outlineLevel="1" spans="1:9">
+    <row r="22" s="8" customFormat="1" ht="51" outlineLevel="1" spans="1:9">
       <c r="A22" s="34">
-        <f ca="1">IF(OFFSET(A22,-1,0)="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1)</f>
+        <f ca="1" t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B22" s="37" t="s">
@@ -2026,7 +2026,7 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="89.25" outlineLevel="1" spans="1:9">
       <c r="A23" s="34">
-        <f ca="1">IF(OFFSET(A23,-1,0)="",OFFSET(A23,-2,0)+1,OFFSET(A23,-1,0)+1)</f>
+        <f ca="1" t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B23" s="37" t="s">
@@ -2046,7 +2046,7 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:9">
       <c r="A24" s="34">
-        <f ca="1">IF(OFFSET(A24,-1,0)="",OFFSET(A24,-2,0)+1,OFFSET(A24,-1,0)+1)</f>
+        <f ca="1" t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B24" s="37" t="s">
@@ -2066,7 +2066,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:9">
       <c r="A25" s="34">
-        <f ca="1">IF(OFFSET(A25,-1,0)="",OFFSET(A25,-2,0)+1,OFFSET(A25,-1,0)+1)</f>
+        <f ca="1" t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B25" s="37" t="s">

--- a/Middle_Assignment/Assignment5/Le Thi Hoa_TestCase_5.xlsx
+++ b/Middle_Assignment/Assignment5/Le Thi Hoa_TestCase_5.xlsx
@@ -267,8 +267,8 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
     <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -338,11 +338,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -353,10 +348,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -368,9 +394,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,40 +428,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -426,6 +441,61 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF7EA1D0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -436,71 +506,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF7EA1D0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,13 +520,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="16"/>
@@ -584,98 +584,122 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFF7A884"/>
       </patternFill>
     </fill>
     <fill>
@@ -686,116 +710,92 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99CC"/>
         <bgColor rgb="FFF7A884"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFF7A884"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
   </fills>
@@ -850,16 +850,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,17 +888,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFC0C0C0"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFC0C0C0"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFC0C0C0"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFC0C0C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,19 +941,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -952,171 +952,171 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4"/>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="24" borderId="4">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="28" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="6" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="22" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="41" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="41" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="42" borderId="4"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="30" fillId="27" borderId="8"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="178" fontId="36" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="37" fillId="43" borderId="9">
+    <xf numFmtId="178" fontId="37" fillId="42" borderId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="26" borderId="9">
+    <xf numFmtId="178" fontId="20" fillId="43" borderId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="38" fillId="0" borderId="0"/>
@@ -1671,8 +1671,8 @@
   <sheetPr/>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15238095238095" defaultRowHeight="12.75"/>

--- a/Middle_Assignment/Assignment5/Le Thi Hoa_TestCase_5.xlsx
+++ b/Middle_Assignment/Assignment5/Le Thi Hoa_TestCase_5.xlsx
@@ -267,10 +267,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="179" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -333,11 +333,146 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF7EA1D0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -355,68 +490,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,67 +511,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF7EA1D0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -499,28 +526,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="16"/>
       <name val="Arial"/>
@@ -533,11 +538,6 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="明朝"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="44">
     <fill>
@@ -584,68 +584,152 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -656,14 +740,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFF7A884"/>
       </patternFill>
     </fill>
     <fill>
@@ -680,32 +764,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFF7A884"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -716,73 +776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,41 +825,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,11 +856,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,6 +882,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,7 +944,7 @@
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -952,174 +952,174 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="29" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="30" fillId="28" borderId="8">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="32" fillId="32" borderId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="36" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="36" borderId="0"/>
+    <xf numFmtId="179" fontId="32" fillId="35" borderId="6"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="30" fillId="27" borderId="8"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="36" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="37" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="179" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="37" fillId="42" borderId="10">
+    <xf numFmtId="179" fontId="38" fillId="42" borderId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="43" borderId="10">
+    <xf numFmtId="179" fontId="29" fillId="43" borderId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1189,7 +1189,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,8 +1320,8 @@
     <cellStyle name="40% - Accent6" xfId="57" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="58" builtinId="52"/>
     <cellStyle name="background 2" xfId="59"/>
-    <cellStyle name="Normal 2 2" xfId="60"/>
-    <cellStyle name="Header" xfId="61"/>
+    <cellStyle name="Header" xfId="60"/>
+    <cellStyle name="Normal 2 2" xfId="61"/>
     <cellStyle name="Hyperlink 2" xfId="62"/>
     <cellStyle name="Hyperlink 3" xfId="63"/>
     <cellStyle name="Normal 2 3" xfId="64"/>
@@ -1671,7 +1671,7 @@
   <sheetPr/>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A21" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1681,8 +1681,8 @@
     <col min="2" max="2" width="47.1428571428571" style="10" customWidth="1"/>
     <col min="3" max="3" width="24.4285714285714" style="10" customWidth="1"/>
     <col min="4" max="4" width="32.4285714285714" style="10" customWidth="1"/>
-    <col min="5" max="5" width="4.85714285714286" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" style="10" customWidth="1"/>
+    <col min="5" max="5" width="14.5238095238095" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.8761904761905" style="10" customWidth="1"/>
     <col min="7" max="8" width="9.71428571428571" style="10" customWidth="1"/>
     <col min="9" max="9" width="4.85714285714286" style="10" customWidth="1"/>
     <col min="10" max="1024" width="9.14285714285714" style="10"/>

--- a/Middle_Assignment/Assignment5/Le Thi Hoa_TestCase_5.xlsx
+++ b/Middle_Assignment/Assignment5/Le Thi Hoa_TestCase_5.xlsx
@@ -190,7 +190,7 @@
     <t>Delete address successfully when address is not default address.</t>
   </si>
   <si>
-    <t>1. Select a address of list address 
+    <t>1. Select a none defaulf address of list address 
 2. Click on Delete icon
 3. Click Delete button</t>
   </si>
@@ -265,12 +265,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="179" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -331,6 +331,42 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -341,66 +377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="明朝"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -409,6 +385,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -417,33 +427,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF7EA1D0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,6 +470,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -469,10 +483,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -483,26 +498,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -511,11 +506,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7EA1D0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -538,6 +533,11 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="44">
     <fill>
@@ -584,49 +584,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,43 +650,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,43 +680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,13 +698,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,24 +758,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF800000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -782,7 +770,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,11 +823,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,26 +871,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,17 +901,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -912,17 +916,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,182 +944,182 @@
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="26" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="29" fillId="36" borderId="7"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="36" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="29" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="32" fillId="32" borderId="6">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="36" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="36" borderId="0"/>
-    <xf numFmtId="179" fontId="32" fillId="35" borderId="6"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="37" fillId="2" borderId="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="37" fillId="42" borderId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="38" fillId="42" borderId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="29" fillId="43" borderId="10">
+    <xf numFmtId="177" fontId="13" fillId="43" borderId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1189,7 +1189,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,8 +1320,8 @@
     <cellStyle name="40% - Accent6" xfId="57" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="58" builtinId="52"/>
     <cellStyle name="background 2" xfId="59"/>
-    <cellStyle name="Header" xfId="60"/>
-    <cellStyle name="Normal 2 2" xfId="61"/>
+    <cellStyle name="Normal 2 2" xfId="60"/>
+    <cellStyle name="Header" xfId="61"/>
     <cellStyle name="Hyperlink 2" xfId="62"/>
     <cellStyle name="Hyperlink 3" xfId="63"/>
     <cellStyle name="Normal 2 3" xfId="64"/>
@@ -1671,8 +1671,8 @@
   <sheetPr/>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="V15" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15238095238095" defaultRowHeight="12.75"/>
@@ -1913,7 +1913,7 @@
       <c r="H16" s="31"/>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" s="5" customFormat="1" ht="25.5" spans="1:9">
+    <row r="17" s="5" customFormat="1" spans="1:9">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>

--- a/Middle_Assignment/Assignment5/Le Thi Hoa_TestCase_5.xlsx
+++ b/Middle_Assignment/Assignment5/Le Thi Hoa_TestCase_5.xlsx
@@ -181,10 +181,14 @@
 2. Click on Delete icon</t>
   </si>
   <si>
-    <t>2.1.  A confirmation pop-up is displayed with:
-- "Are you sure you want to delete this address?"
-- The information of this address
-- Button: Cancel and Delete</t>
+    <t>2.1. A confirmation pop-up is displayed with x button on the top right.
+- Label: Are you sure you want to delete this address?"
+- Detail address: 
+  + Full Name
+  + Address
+  + Province, District, Ward
+  + Phone number
+- 2 buttons: Cancel and Delete with Delete is selected status</t>
   </si>
   <si>
     <t>Delete address successfully when address is not default address.</t>
@@ -265,8 +269,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
@@ -333,6 +337,69 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -342,28 +409,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,35 +437,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -414,14 +445,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,6 +468,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,62 +495,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -506,6 +503,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF7EA1D0"/>
@@ -584,67 +588,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFF7A884"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFF7A884"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,37 +660,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,20 +684,68 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800000"/>
-        <bgColor rgb="FF800000"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -722,67 +756,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFF7A884"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,12 +800,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFBFBFBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
-        <bgColor rgb="FFF7A884"/>
       </patternFill>
     </fill>
   </fills>
@@ -824,6 +828,36 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -840,17 +874,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -871,32 +898,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,210 +922,208 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7"/>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="26" borderId="7">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="23" borderId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="14" borderId="0"/>
+    <xf numFmtId="176" fontId="15" fillId="13" borderId="3"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="29" fillId="36" borderId="7"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="36" fillId="2" borderId="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="36" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="37" fillId="42" borderId="10">
+    <xf numFmtId="176" fontId="37" fillId="43" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="43" borderId="10">
+    <xf numFmtId="176" fontId="11" fillId="9" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1320,8 +1324,8 @@
     <cellStyle name="40% - Accent6" xfId="57" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="58" builtinId="52"/>
     <cellStyle name="background 2" xfId="59"/>
-    <cellStyle name="Normal 2 2" xfId="60"/>
-    <cellStyle name="Header" xfId="61"/>
+    <cellStyle name="Header" xfId="60"/>
+    <cellStyle name="Normal 2 2" xfId="61"/>
     <cellStyle name="Hyperlink 2" xfId="62"/>
     <cellStyle name="Hyperlink 3" xfId="63"/>
     <cellStyle name="Normal 2 3" xfId="64"/>
@@ -1671,8 +1675,8 @@
   <sheetPr/>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="V15" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15238095238095" defaultRowHeight="12.75"/>
@@ -1964,7 +1968,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
     </row>
-    <row r="20" s="7" customFormat="1" ht="76.5" outlineLevel="1" spans="1:9">
+    <row r="20" s="7" customFormat="1" ht="144" customHeight="1" outlineLevel="1" spans="1:9">
       <c r="A20" s="34">
         <f ca="1" t="shared" ref="A20:A25" si="0">IF(OFFSET(A20,-1,0)="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1)</f>
         <v>1</v>
